--- a/biology/Zoologie/Brachytarsophrys_intermedia/Brachytarsophrys_intermedia.xlsx
+++ b/biology/Zoologie/Brachytarsophrys_intermedia/Brachytarsophrys_intermedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachytarsophrys intermedia ou Crapaud d'Annam est une espèce d'amphibiens de la famille des Megophryidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachytarsophrys intermedia ou Crapaud d'Annam est une espèce d'amphibiens de la famille des Megophryidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre au-dessus de 900 m d'altitude[1], uniquement dans les forêts tropicales des Annamites :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre au-dessus de 900 m d'altitude, uniquement dans les forêts tropicales des Annamites :
 au Viêt Nam dans les provinces de Đắk Lắk, de Gia Lai, de Lâm Đồng et de Kon Tum ;
 au Laos dans la province de Sékong.</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachytarsophrys intermedia[2] mesure de 43 à 103 mm[3]. 
-Cette grenouille aux allures de crapaud a une couleur de peau et des excroissances pointues qui servent de camouflage et imitent les feuilles mortes sur le sol de la  forêt[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachytarsophrys intermedia mesure de 43 à 103 mm. 
+Cette grenouille aux allures de crapaud a une couleur de peau et des excroissances pointues qui servent de camouflage et imitent les feuilles mortes sur le sol de la  forêt. 
 Cette espèce a la face dorsale bronze ou cuivre sombre avec des marques peu marquées de couleur plus claire et plus sombre. Sa face ventrale est brun foncé à bronze, plus pâle au niveau du ventre. Les juvéniles présentent une coloration plus pâle et jaunâtre au niveau de la tête et des épaules et ont des marques plus accentuées.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin intermedia, « intermédiaire », lui a été donné en référence au fait qu'elle est d'apparence intermédiaire entre Brachytarsophrys carinense et Brachytarsophrys feae[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin intermedia, « intermédiaire », lui a été donné en référence au fait qu'elle est d'apparence intermédiaire entre Brachytarsophrys carinense et Brachytarsophrys feae.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1921 : New or Little-known Reptiles and Batrachians from Southern Annam (Indo-China). Proceedings of the Zoological Society of London, vol. 1921, p. 423-440 (texte intégral).</t>
         </is>
